--- a/downloaded_files/EECS306_Lecture-35314.xlsx
+++ b/downloaded_files/EECS306_Lecture-35314.xlsx
@@ -1485,7 +1485,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6641871528</x:v>
+        <x:v>45927.4167707176</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>

--- a/downloaded_files/EECS306_Lecture-35314.xlsx
+++ b/downloaded_files/EECS306_Lecture-35314.xlsx
@@ -66,7 +66,7 @@
     <x:t>احمد محمد فاروق محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed farouk mohamed mohamed soltan</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Farouk Mohamed  </x:t>
   </x:si>
   <x:si>
     <x:t>1220162</x:t>

--- a/downloaded_files/EECS306_Lecture-35314.xlsx
+++ b/downloaded_files/EECS306_Lecture-35314.xlsx
@@ -156,7 +156,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>Seifeldin Sameh Abdelrahman Dakroury</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1220325</x:t>
@@ -210,7 +210,7 @@
     <x:t>عبدالرحمن مصطفى محمد رضوان احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Mostafa Mohammed radwan</x:t>
+    <x:t>ABDELRAHMAN MOSTAFA MOHAMMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1220016</x:t>
@@ -351,7 +351,7 @@
     <x:t>مصطفى ايهاب حلمي محمد رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>Mostafa Ehab Helmy Mohamed Radwan</x:t>
+    <x:t>MOSTAFA EHAB HELMY MOHAMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1220202</x:t>
@@ -369,7 +369,7 @@
     <x:t>نور محمد السيد عبدالله خليل طنطاوي</x:t>
   </x:si>
   <x:si>
-    <x:t>NOOR MOHAMED ELSAYED ABDALLAH KHALIL TANTAWY</x:t>
+    <x:t>Noor Mohamed Elsayed Abdallah Khalil Tantawy</x:t>
   </x:si>
   <x:si>
     <x:t>4220146</x:t>
@@ -827,7 +827,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.580625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="50.420625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="47.390625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/EECS306_Lecture-35314.xlsx
+++ b/downloaded_files/EECS306_Lecture-35314.xlsx
@@ -156,7 +156,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEK DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1220325</x:t>
